--- a/biology/Botanique/Typha_laxmannii/Typha_laxmannii.xlsx
+++ b/biology/Botanique/Typha_laxmannii/Typha_laxmannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha laxmannii est une espèce de roseaux (Typha) de la famille des Typhaceae, nommée ainsi en hommage à Erich Laxmann par Ivan Lepekhin.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce roseau mesure de 80 à 130 cm (parfois 210 cm) en moyenne avec des feuilles étroites et longues de 2 à 4 mm (maximum 7 mm). Sa fleur est unisexuée.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha laxmannii croît au bord des rivières, des marais, des solontchaks et des lacs des zones de climat tempéré d'Eurasie. On le rencontre fréquemment en Russie au sud de l'Oural et de la Sibérie, ainsi que dans le sud-ouest de la Russie européenne.
 </t>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Typha minima subsp. laxmannii (Lepech.) Nyman
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Typha minima subsp. laxmannii (Lepech.) Nyman
 Typha stenophylla Fisch. &amp; C.A.Mey.
 Typha zerovii Klok.fil &amp; Krasnova</t>
         </is>
